--- a/gidb/tsc_benchmark_results_clean.xlsx
+++ b/gidb/tsc_benchmark_results_clean.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="764" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="9827_2#49" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
   <si>
     <t>Local path</t>
   </si>
@@ -165,10 +165,10 @@
     <t>Intel® Xeon® CPU E5-2690 v2 @ 3.00 GHz, 126GiB RAM, openSUSE 13.1 (Bottle) (x86_64)</t>
   </si>
   <si>
-    <t>Short SAM file containing 100,000 lines; run with original file produced seg fault</t>
+    <t>Timing statistics</t>
   </si>
   <si>
-    <t>Timing statistics</t>
+    <t>The first 100,000 alignments have been used</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,11 +1125,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="2064689824"/>
-        <c:axId val="2064698528"/>
+        <c:axId val="1306907696"/>
+        <c:axId val="1306913136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064689824"/>
+        <c:axId val="1306907696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1147,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2064698528"/>
+        <c:crossAx val="1306913136"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1155,7 +1155,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064698528"/>
+        <c:axId val="1306913136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1180,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2064689824"/>
+        <c:crossAx val="1306907696"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,11 +1522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="2064678400"/>
-        <c:axId val="2064672416"/>
+        <c:axId val="831338464"/>
+        <c:axId val="831328128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064678400"/>
+        <c:axId val="831338464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1544,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2064672416"/>
+        <c:crossAx val="831328128"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1552,7 +1552,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064672416"/>
+        <c:axId val="831328128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1577,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2064678400"/>
+        <c:crossAx val="831338464"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2136,11 +2136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="2064681664"/>
-        <c:axId val="2064685472"/>
+        <c:axId val="831330848"/>
+        <c:axId val="831329216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064681664"/>
+        <c:axId val="831330848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +2158,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2064685472"/>
+        <c:crossAx val="831329216"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2166,7 +2166,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064685472"/>
+        <c:axId val="831329216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2191,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2064681664"/>
+        <c:crossAx val="831330848"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2750,11 +2750,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="2064681120"/>
-        <c:axId val="2064686560"/>
+        <c:axId val="1306912048"/>
+        <c:axId val="1306919120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064681120"/>
+        <c:axId val="1306912048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,7 +2772,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2064686560"/>
+        <c:crossAx val="1306919120"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2780,7 +2780,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064686560"/>
+        <c:axId val="1306919120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2805,7 +2805,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2064681120"/>
+        <c:crossAx val="1306912048"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3484,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,6 +3530,14 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3998,6 +4006,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4009,7 +4020,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4054,6 +4065,14 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4522,6 +4541,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4533,7 +4555,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4578,6 +4600,14 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -5046,6 +5076,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5056,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5103,7 +5136,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5477,7 +5510,7 @@
     </row>
     <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
